--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/57_Mardin_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/57_Mardin_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5735871-B755-47D0-9D95-596B0167D5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01BA025E-85E6-4280-8E16-612A08743CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{C65B9299-3680-4BC6-B3F2-DDEC62DF7B71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{04652254-756F-4B65-8DB4-D1A680939B39}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -797,14 +797,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{861B3314-2316-41E3-A4E1-812E6264CAB8}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B4DF8DBC-C0CB-455E-8FFA-E2AD694010D1}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{59FB529F-DA2A-40A1-8913-27996D09CE13}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{A6A30CEA-4BA1-4D1A-9383-83952205F67B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A0FD6036-01DD-49FA-B6F4-C7C12CB1D0F1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5A0DD628-C5C6-46C1-9699-3238828AA7ED}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{4C1B61F6-D621-42B9-8818-B4AA50EBC488}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{667D5467-1ED6-4B1E-88BC-3C49F60CEAC2}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2E9280C3-D8CD-402A-9E10-F05BB9BFD68C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{06AC9E1F-EE7C-4E72-BE0C-4724C9302331}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{10856D9C-767E-41AB-B12B-96C27B70B694}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{B669A57F-85C8-45EE-BCBB-CF89E576FC9E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7897637D-FF0A-471C-8165-C6F3CBE7E7DE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D62AC63A-420A-4B24-A655-11C0C26CE784}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{BB564A7D-F961-4F60-8553-5B24BBB7C4F8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{16BF153A-7380-45F2-8212-B744184FF835}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB32DA5-6F33-4360-AD29-9CEE423E2FC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B045A5-51FA-411C-81B3-08C72DCEBBA6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0005DADB-B5EA-44FA-8D63-1550BE1D3A02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15573BA-4A6D-4F8A-B9C4-83A67CF84458}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3758,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C855CE-633F-4580-9083-4E3C4E43DDBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07DF2C6-2E2E-4FF9-9E22-E7C74F0D94A5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5049,7 +5049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C994B7F6-96AD-42C2-8185-B3D5042C9B82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C716AA10-3653-46C1-9D17-B8999C78D1D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6338,7 +6338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C223139C-9251-4107-86D3-93494061C531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D2767C-DBF4-47F5-9CCD-175C6F4DD42E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7617,7 +7617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AE7929-D7E1-420D-B6AC-F542ECC1C605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D85105-9180-40AA-AF39-C60B3A8A6404}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
